--- a/biology/Zoologie/Ibacus_peronii/Ibacus_peronii.xlsx
+++ b/biology/Zoologie/Ibacus_peronii/Ibacus_peronii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibacus peronii, communément appelé Squille papillon[réf. nécessaire], est une espèce de cigales de mer, proche de la langouste. Cette espèce mesure environ 70 mm.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibacus peronii n'a pas de pinces et utilise ses antennes courtes et larges pour creuser dans le sable et la boue sur le fond de l'océan à la recherche de nourriture.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibacus peronii se rencontre en Australie, dans le Queensland, la Nouvelle-Galles du Sud, dans l'État de Victoria, en Australie-Méridionale, en Tasmanie, et en Australie-Occidentale. On le trouve également en Nouvelle-Zélande.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibacus peronii vit dans l'océan à des profondeurs de 20 à 500 m.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Leach, 1815 : The Zoological Miscellany: Being Descriptions of New Or Interesting Animals. vol. 2, (la).</t>
         </is>
